--- a/data/processed/1_FDRS_Wide_Format_IP_ALL_Staging.xlsx
+++ b/data/processed/1_FDRS_Wide_Format_IP_ALL_Staging.xlsx
@@ -56803,8 +56803,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100690A46C601EF784FB4DBF90453A8B30A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="30e798558c24d933b83cabca3a8549cd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad" xmlns:ns3="ffb314bc-7b2d-45ce-a517-7d370eafd82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfbdb12039145b339eccd1e6b363e79e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100690A46C601EF784FB4DBF90453A8B30A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c2a6d426412259875eae8505f32291d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad" xmlns:ns3="ffb314bc-7b2d-45ce-a517-7d370eafd82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ede3b69aa4e47f5cdfdf7e34ba2e0ff" ns2:_="" ns3:_="">
     <xsd:import namespace="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad"/>
     <xsd:import namespace="ffb314bc-7b2d-45ce-a517-7d370eafd82d"/>
     <xsd:element name="properties">
@@ -56827,6 +56827,7 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -56897,6 +56898,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ffb314bc-7b2d-45ce-a517-7d370eafd82d" elementFormDefault="qualified">
@@ -57048,10 +57054,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ffb314bc-7b2d-45ce-a517-7d370eafd82d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24383332-348D-4533-81B2-B337B2E6A774}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09738BE8-6572-47A2-A25E-F6ED665F3C50}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{356B1723-7CCC-4287-ABA1-33BA490FE742}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90AE02CF-9F7A-48B9-A573-30B788F0EF1B}"/>
 </file>